--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:12:46+00:00</t>
+    <t>2023-05-07T19:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:13:00+00:00</t>
+    <t>2023-05-07T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:16:02+00:00</t>
+    <t>2023-05-07T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:08:14+00:00</t>
+    <t>2023-05-07T21:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:39:12+00:00</t>
+    <t>2023-05-07T21:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:52:36+00:00</t>
+    <t>2023-05-07T22:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:07:44+00:00</t>
+    <t>2023-05-07T22:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 TC</t>
+    <t>HL7 PT TC</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:12:24+00:00</t>
+    <t>2023-05-07T22:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:29:01+00:00</t>
+    <t>2023-05-07T22:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:36:34+00:00</t>
+    <t>2023-05-07T22:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:59:45+00:00</t>
+    <t>2023-05-07T23:08:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:08:30+00:00</t>
+    <t>2023-05-07T23:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:16:14+00:00</t>
+    <t>2023-05-07T23:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:22:06+00:00</t>
+    <t>2023-05-07T23:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:26:27+00:00</t>
+    <t>2023-05-07T23:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:DataElement</t>
+    <t>element:Resource</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:39:48+00:00</t>
+    <t>2023-05-08T00:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:33:17+00:00</t>
+    <t>2023-05-08T00:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-dosage-line.xlsx
+++ b/StructureDefinition-med-prescription-dosage-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:44:39+00:00</t>
+    <t>2023-06-02T10:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
